--- a/params/test.xlsx
+++ b/params/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11740"/>
+    <workbookView windowWidth="17800" windowHeight="16800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+  <si>
+    <t>address</t>
+  </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>address</t>
   </si>
   <si>
     <t>country</t>
@@ -644,11 +644,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1182,33 +1179,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.28571428571429" customWidth="1"/>
-    <col min="2" max="2" width="7.42857142857143" customWidth="1"/>
-    <col min="3" max="3" width="6.57142857142857" customWidth="1"/>
+    <col min="1" max="1" width="12.3482142857143" customWidth="1"/>
+    <col min="2" max="2" width="16.6696428571429" customWidth="1"/>
+    <col min="3" max="3" width="16.9553571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="C1" t="s">
+        <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="16" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1216,8 +1213,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1227,6 +1227,9 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
